--- a/ProjectPracticeAutomation/TestData/excelsheet.xlsx
+++ b/ProjectPracticeAutomation/TestData/excelsheet.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -36,15 +36,12 @@
   <si>
     <t>madhumisavita</t>
   </si>
-  <si>
-    <t>savitashri77@gmail.com</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +91,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -140,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,9 +177,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,6 +212,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,20 +388,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,15 +409,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -418,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -426,38 +433,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
